--- a/biology/Zoologie/Dendrocopos/Dendrocopos.xlsx
+++ b/biology/Zoologie/Dendrocopos/Dendrocopos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocopos est un genre d'oiseaux de la famille des Picidae. Il regroupe 20 espèces de pics de taille moyenne, au plumage généralement noir et blanc présentant quelques taches de rouge (au niveau du front, de la nuque, du croupion, ...).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Dendrocopos hyperythrus – Pic à ventre fauve
